--- a/Docs/Convertido/DIM100722PC6 - 2020-08 - AFIRME.xlsx
+++ b/Docs/Convertido/DIM100722PC6 - 2020-08 - AFIRME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCORU\Documents\Visual Studio 2019\Proyectos\vb.EstadosCuentaToExcel\Docs\Convertido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B2E50E-E109-4751-8B0F-A2F3698FBA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B2B1FB-E5B8-473C-AA28-8A79199187A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1155" windowWidth="22290" windowHeight="15060" xr2:uid="{4D909626-2559-414A-A73C-70C42AD6CBDA}"/>
+    <workbookView xWindow="4200" yWindow="1155" windowWidth="22290" windowHeight="15060" xr2:uid="{B1598DCD-6D85-44F8-BA19-D6D9C6DA2A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -175,14 +175,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1FE079F-DB9A-4508-917B-1D8B0F377CD0}" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E3" xr:uid="{221AEBE1-2FAC-42B5-B695-5CF74C299665}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EE51D3-B20E-4F80-BD30-1D64D4085995}" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E3" xr:uid="{9401033A-51C1-492E-934D-A970442FD59C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{009803D8-3B2B-4790-B529-A869AF9C1135}" name="Día" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{15106782-AE1A-468E-80A5-FF4D1CC2672A}" name="Descripción / Referencia" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{828E3AA8-C70E-4805-8699-22D4789807C7}" name="Depósitos" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E00F22F0-A45C-4C28-9A7F-76D92EE03ECF}" name="Retiros" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1CFD3CE3-CAA6-4DC9-B26D-96CE2256596F}" name="Saldo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C42111FA-EC2D-4CBD-98EA-3102F3F6DC58}" name="Día" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{11D27024-2391-4F64-9837-74214221A367}" name="Descripción / Referencia" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BFE43595-1627-45E0-BC9E-4ADF5A5D247F}" name="Depósitos" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9DB53C3B-F3A7-4F06-AB82-DFE5490C3E9A}" name="Retiros" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{30A2B216-ADCB-4B0B-A937-A5A073F82B4D}" name="Saldo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F6A3AD-D1C2-4A5C-8167-1215D2727A16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214F4CEF-702C-46FE-847D-F0F6246C95B9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
